--- a/behavioral_August2019/story_xlsx_files_RECORDED/23.xlsx
+++ b/behavioral_August2019/story_xlsx_files_RECORDED/23.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>sentence_number</t>
+  </si>
   <si>
     <t>storyText</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t>story</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <r>
@@ -212,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,6 +238,21 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,10 +291,10 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -282,7 +303,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -341,34 +362,34 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,10 +650,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1200,10 +1221,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1457,14 +1478,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1480,596 +1508,754 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>6</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>23</v>
       </c>
-      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="104.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
+      <c r="A3" s="8">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>7</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="104.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
+      <c r="A4" s="8">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>8</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="116.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
+      <c r="A5" s="8">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>9</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
+      <c r="A6" s="8">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>10</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="80.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
+      <c r="A7" s="8">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>11</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="68.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="8">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="8">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="8">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="44.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="8">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="80.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="8">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
+      <c r="A13" s="8">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>17</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" ht="104.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
+      <c r="A14" s="8">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>18</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
+      <c r="A15" s="8">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>19</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2</v>
+      <c r="A16" s="8">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>20</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" ht="56.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
+      <c r="A17" s="8">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>21</v>
       </c>
       <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3</v>
+      <c r="A18" s="8">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>22</v>
       </c>
       <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="80.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
+      <c r="A19" s="8">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>23</v>
       </c>
       <c r="C19" s="10">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="68.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3</v>
+      <c r="A20" s="8">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>24</v>
       </c>
       <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
         <v>2</v>
       </c>
-      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="56.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3</v>
+      <c r="A21" s="8">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>25</v>
       </c>
       <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
+      <c r="A22" s="8">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>26</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="44.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
+      <c r="A23" s="8">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>27</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11">
+        <v>3</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" ht="116.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
+      <c r="A24" s="8">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>28</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11">
+        <v>3</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" ht="116.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B25" s="9">
-        <v>3</v>
+      <c r="A25" s="8">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>29</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11">
+        <v>3</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="44.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
+      <c r="A26" s="8">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>30</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11">
+        <v>3</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" ht="80.35" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
+      <c r="A27" s="8">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>31</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>3</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="80.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9">
-        <v>3</v>
+      <c r="A28" s="8">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="9">
+        <v>32</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11">
+        <v>3</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9">
-        <v>3</v>
+      <c r="A29" s="8">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>33</v>
       </c>
       <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9">
-        <v>3</v>
+      <c r="A30" s="8">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="9">
+        <v>34</v>
       </c>
       <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11">
         <v>4</v>
       </c>
-      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" ht="68.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9">
-        <v>3</v>
+      <c r="A31" s="8">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>35</v>
       </c>
       <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" ht="44.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B32" s="9">
-        <v>3</v>
+      <c r="A32" s="8">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>36</v>
       </c>
       <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11">
         <v>4</v>
       </c>
-      <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" ht="44.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
-        <v>3</v>
+      <c r="A33" s="8">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>37</v>
       </c>
       <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11">
         <v>4</v>
       </c>
-      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" ht="68.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>3</v>
+      <c r="A34" s="8">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>38</v>
       </c>
       <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" ht="44.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>3</v>
+      <c r="A35" s="8">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>39</v>
       </c>
       <c r="C35" s="10">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11">
         <v>4</v>
       </c>
-      <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="56.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3</v>
+      <c r="A36" s="8">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>40</v>
       </c>
       <c r="C36" s="10">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11">
         <v>4</v>
       </c>
-      <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" ht="56.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3</v>
+      <c r="A37" s="8">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>41</v>
       </c>
       <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11">
         <v>4</v>
       </c>
-      <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" ht="68.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
+      <c r="A38" s="8">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>42</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>4</v>
+      </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" ht="92.05" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9">
-        <v>4</v>
+      <c r="A39" s="8">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="9">
+        <v>43</v>
       </c>
       <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="11">
+        <v>4</v>
+      </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" ht="80.05" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9">
-        <v>4</v>
+      <c r="A40" s="8">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="9">
+        <v>44</v>
       </c>
       <c r="C40" s="10">
         <v>4</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11">
+        <v>4</v>
+      </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
